--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_24.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_24.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_9</t>
+          <t>model_1_24_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998766116949889</v>
+        <v>0.931850218273401</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8292032633292914</v>
+        <v>0.755547110024166</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8219387538124356</v>
+        <v>0.6892172372224403</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996437678432922</v>
+        <v>0.9350414347472473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005136071136858868</v>
+        <v>0.2836752858202907</v>
       </c>
       <c r="G2" t="n">
-        <v>1.142118564563687</v>
+        <v>1.634657600870461</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6369147530286503</v>
+        <v>1.111651922235368</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002036151396982187</v>
+        <v>0.2261770350486595</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05178906592232681</v>
+        <v>1.519490816683275</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0226629017048984</v>
+        <v>0.5326117589955095</v>
       </c>
       <c r="L2" t="n">
-        <v>1.007896851520712</v>
+        <v>0.9072002972233545</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02301981975216024</v>
+        <v>0.5409998617832599</v>
       </c>
       <c r="N2" t="n">
-        <v>145.1481039100998</v>
+        <v>36.51985010948619</v>
       </c>
       <c r="O2" t="n">
-        <v>286.4832764533163</v>
+        <v>73.48443369771202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_8</t>
+          <t>model_1_24_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999878776307683</v>
+        <v>0.9318594923008022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8292018803979151</v>
+        <v>0.7554465148693452</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8219083857841518</v>
+        <v>0.6888309854649763</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996525314111767</v>
+        <v>0.9345031716561083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005045968555584764</v>
+        <v>0.2836366824336457</v>
       </c>
       <c r="G3" t="n">
-        <v>1.142127812232168</v>
+        <v>1.635330281133946</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6370233777049819</v>
+        <v>1.113033522375653</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001986060604630727</v>
+        <v>0.2280511951314175</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05154050507618534</v>
+        <v>1.517127601025681</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02246323341726379</v>
+        <v>0.532575518056966</v>
       </c>
       <c r="L3" t="n">
-        <v>1.007758316308291</v>
+        <v>0.9072129256861988</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02281700688859044</v>
+        <v>0.540963050086162</v>
       </c>
       <c r="N3" t="n">
-        <v>145.183501506659</v>
+        <v>36.52012229402567</v>
       </c>
       <c r="O3" t="n">
-        <v>286.5186740498754</v>
+        <v>73.48470588225149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_7</t>
+          <t>model_1_24_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998904323976091</v>
+        <v>0.9317298457028025</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8291302655272246</v>
+        <v>0.7532785645481238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8213526178107464</v>
+        <v>0.6810791893202421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997286814998416</v>
+        <v>0.9225704036746111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004560780700598666</v>
+        <v>0.2841763398589729</v>
       </c>
       <c r="G4" t="n">
-        <v>1.142606701202232</v>
+        <v>1.649827374914446</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6390113275205744</v>
+        <v>1.140761247710401</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001550802005720156</v>
+        <v>0.26959949706015</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05292910141858483</v>
+        <v>1.468822469260005</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0213559844085883</v>
+        <v>0.5330819260291733</v>
       </c>
       <c r="L4" t="n">
-        <v>1.007012326553017</v>
+        <v>0.9070363856378587</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02169231981487125</v>
+        <v>0.5414774334777092</v>
       </c>
       <c r="N4" t="n">
-        <v>145.3856931136647</v>
+        <v>36.51632063702501</v>
       </c>
       <c r="O4" t="n">
-        <v>286.7208656568811</v>
+        <v>73.48090422525084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_6</t>
+          <t>model_1_24_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998909466250451</v>
+        <v>0.9317125705610871</v>
       </c>
       <c r="C5" t="n">
-        <v>0.829112375561017</v>
+        <v>0.7531928046751704</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8213706352793273</v>
+        <v>0.680790262916656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997316692838655</v>
+        <v>0.9220740670564569</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004539375846298067</v>
+        <v>0.2842482480975546</v>
       </c>
       <c r="G5" t="n">
-        <v>1.142726331488638</v>
+        <v>1.650400851579774</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6389468800801734</v>
+        <v>1.141794720703113</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001533724432852362</v>
+        <v>0.2713276747722561</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05253327244776897</v>
+        <v>1.466934956087565</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02130581105308612</v>
+        <v>0.5331493675299208</v>
       </c>
       <c r="L5" t="n">
-        <v>1.006979415997115</v>
+        <v>0.9070128620406293</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02164135627917487</v>
+        <v>0.5415459371146768</v>
       </c>
       <c r="N5" t="n">
-        <v>145.395101696326</v>
+        <v>36.51581461923135</v>
       </c>
       <c r="O5" t="n">
-        <v>286.7302742395423</v>
+        <v>73.48039820745717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_5</t>
+          <t>model_1_24_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998920603865954</v>
+        <v>0.9316945710331181</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8291072944566473</v>
+        <v>0.7530932366391035</v>
       </c>
       <c r="D6" t="n">
-        <v>0.821338514235844</v>
+        <v>0.6805052151052656</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997379492182775</v>
+        <v>0.9215797264612829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0004493015224426412</v>
+        <v>0.2843231716132559</v>
       </c>
       <c r="G6" t="n">
-        <v>1.142760308856954</v>
+        <v>1.651066663495421</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6390617751902281</v>
+        <v>1.142814320196435</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001497829590162589</v>
+        <v>0.2730489025993423</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05264060166570018</v>
+        <v>1.465060664150728</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02119673376826348</v>
+        <v>0.5332196279332335</v>
       </c>
       <c r="L6" t="n">
-        <v>1.006908135257895</v>
+        <v>0.9069883520450971</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02153056113615355</v>
+        <v>0.541617304049107</v>
       </c>
       <c r="N6" t="n">
-        <v>145.4156327068341</v>
+        <v>36.51528751910962</v>
       </c>
       <c r="O6" t="n">
-        <v>286.7508052500505</v>
+        <v>73.47987110733544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_4</t>
+          <t>model_1_24_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998939071330065</v>
+        <v>0.9316758805197214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8290738660028039</v>
+        <v>0.7530206595539373</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8212286349388529</v>
+        <v>0.6802240042444641</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997488300315815</v>
+        <v>0.9210876534598184</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004416143912036888</v>
+        <v>0.2844009713742477</v>
       </c>
       <c r="G7" t="n">
-        <v>1.142983845081729</v>
+        <v>1.651551986798115</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6394548070643974</v>
+        <v>1.14382019513998</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001435637048607724</v>
+        <v>0.2747622349684564</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05282890593129601</v>
+        <v>1.463201128564755</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02101462327056302</v>
+        <v>0.5332925757726689</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006789943487583</v>
+        <v>0.9069629011332376</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02134558258015802</v>
+        <v>0.5416914007440924</v>
       </c>
       <c r="N7" t="n">
-        <v>145.4501469495118</v>
+        <v>36.51474033107524</v>
       </c>
       <c r="O7" t="n">
-        <v>286.7853194927283</v>
+        <v>73.47932391930107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_3</t>
+          <t>model_1_24_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998935194142716</v>
+        <v>0.9316157170802242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8287770594274486</v>
+        <v>0.7527561150648627</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8197274528889611</v>
+        <v>0.6794033273285387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998548864759375</v>
+        <v>0.9196236555124214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004432282807887617</v>
+        <v>0.2846514032973279</v>
       </c>
       <c r="G8" t="n">
-        <v>1.144968592017798</v>
+        <v>1.653320997014672</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6448244482133241</v>
+        <v>1.146755708882663</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008294397324251698</v>
+        <v>0.2798596799900814</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05289319187897279</v>
+        <v>1.457702324023164</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02105298745519889</v>
+        <v>0.5335273219782918</v>
       </c>
       <c r="L8" t="n">
-        <v>1.006814757486616</v>
+        <v>0.9068809764496669</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02138455096235179</v>
+        <v>0.5419298439677938</v>
       </c>
       <c r="N8" t="n">
-        <v>145.4428512282461</v>
+        <v>36.51297998738531</v>
       </c>
       <c r="O8" t="n">
-        <v>286.7780237714625</v>
+        <v>73.47756357561113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_2</t>
+          <t>model_1_24_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998606657601935</v>
+        <v>0.9315943665010511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8284128736912945</v>
+        <v>0.7526815642925355</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8178618630881349</v>
+        <v>0.6791375687126016</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999887303434706</v>
+        <v>0.9191398572879033</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005799824929775617</v>
+        <v>0.2847402756531289</v>
       </c>
       <c r="G9" t="n">
-        <v>1.147403903712382</v>
+        <v>1.653819518372499</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6514975547577677</v>
+        <v>1.147706312042301</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006441509126495494</v>
+        <v>0.2815442006927412</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05293638460338501</v>
+        <v>1.455899802529876</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02408282568507196</v>
+        <v>0.533610603017902</v>
       </c>
       <c r="L9" t="n">
-        <v>1.008917391347616</v>
+        <v>0.9068519033205802</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02446210611561829</v>
+        <v>0.5420144366005273</v>
       </c>
       <c r="N9" t="n">
-        <v>144.9050252788016</v>
+        <v>36.51235565541975</v>
       </c>
       <c r="O9" t="n">
-        <v>286.240197822018</v>
+        <v>73.47693924364557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_1</t>
+          <t>model_1_24_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998602629457124</v>
+        <v>0.9315724710323433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8283585537558946</v>
+        <v>0.752600706385158</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8178531457762486</v>
+        <v>0.678875357181594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998904226644263</v>
+        <v>0.9186582204935243</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0005816592190088174</v>
+        <v>0.2848314161261648</v>
       </c>
       <c r="G10" t="n">
-        <v>1.147767141370521</v>
+        <v>1.654360215571449</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6515287360769262</v>
+        <v>1.148644227484817</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006263220226045309</v>
+        <v>0.2832211955847789</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05232544899816385</v>
+        <v>1.454119162182599</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02411761221615476</v>
+        <v>0.5336959959810124</v>
       </c>
       <c r="L10" t="n">
-        <v>1.008943171474407</v>
+        <v>0.9068220882142547</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02449744049979188</v>
+        <v>0.5421011744174451</v>
       </c>
       <c r="N10" t="n">
-        <v>144.8992516321483</v>
+        <v>36.51171559219239</v>
       </c>
       <c r="O10" t="n">
-        <v>286.2344241753647</v>
+        <v>73.47629918041821</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_0</t>
+          <t>model_1_24_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998507946208568</v>
+        <v>0.9315268663943794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8282506968490202</v>
+        <v>0.7522739439725502</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8175039027533373</v>
+        <v>0.6783620693730932</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999902564110371</v>
+        <v>0.9177015021359917</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006210713739944264</v>
+        <v>0.2850212466491886</v>
       </c>
       <c r="G11" t="n">
-        <v>1.148488381003425</v>
+        <v>1.656545277329159</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6527779581196058</v>
+        <v>1.150480228213687</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005569239582908623</v>
+        <v>0.2865523609305865</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05262400279882595</v>
+        <v>1.450599738270211</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02492130361747608</v>
+        <v>0.5338738115408814</v>
       </c>
       <c r="L11" t="n">
-        <v>1.009549144265165</v>
+        <v>0.9067599882817081</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02531378923728735</v>
+        <v>0.5422817903946316</v>
       </c>
       <c r="N11" t="n">
-        <v>144.7681290973334</v>
+        <v>36.51038310369179</v>
       </c>
       <c r="O11" t="n">
-        <v>286.1033016405498</v>
+        <v>73.47496669191761</v>
       </c>
     </row>
   </sheetData>
